--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,15 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet21" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet23" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet24" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet26" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -425,10 +431,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -454,54 +460,111 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>5</v>
+      <c r="B2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="n">
+        <v>81</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
+      <c r="B5" t="n">
+        <v>97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
+      <c r="B6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
+      <c r="B7" t="n">
+        <v>72</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
+      <c r="B9" t="n">
+        <v>55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
+      <c r="B10" t="n">
+        <v>75</v>
+      </c>
+      <c r="C10" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -509,6 +572,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -524,4 +677,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>